--- a/dataDisplay/flaskapp/test.xlsx
+++ b/dataDisplay/flaskapp/test.xlsx
@@ -26,96 +26,89 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>2008-2009</t>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆山配套</t>
+  </si>
+  <si>
+    <t>国家下达经费</t>
+  </si>
+  <si>
+    <t>合作国家</t>
+  </si>
+  <si>
+    <t>项目负责人</t>
+  </si>
+  <si>
+    <t>所在乡镇</t>
+  </si>
+  <si>
+    <t>起止时间</t>
+  </si>
+  <si>
+    <t>立项时间</t>
+  </si>
+  <si>
+    <t>申报时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担单位</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>国家级国际科技合作与交流专项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010DFB12990</t>
+  </si>
+  <si>
+    <t>中美合作下一代移动通讯基站关键芯片RF LDMOS设计、加工的核心技术</t>
+  </si>
+  <si>
+    <t>昆山华太电子技术有限公司</t>
+  </si>
+  <si>
+    <t>周庄</t>
+  </si>
+  <si>
+    <t>张耀辉</t>
+  </si>
+  <si>
     <t>已验收</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>赵一兵
 15850287298
 zhaoyibing@gmail.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>张耀辉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周庄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008-2009</t>
-  </si>
-  <si>
-    <t>昆山华太电子技术有限公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中美合作下一代移动通讯基站关键芯片RF LDMOS设计、加工的核心技术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010DFB12990</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆山配套</t>
-  </si>
-  <si>
-    <t>国家下达经费</t>
-  </si>
-  <si>
-    <t>合作国家</t>
-  </si>
-  <si>
-    <t>项目负责人</t>
-  </si>
-  <si>
-    <t>所在乡镇</t>
-  </si>
-  <si>
-    <t>起止时间</t>
-  </si>
-  <si>
-    <t>立项时间</t>
-  </si>
-  <si>
-    <t>申报时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>承担单位</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>项目编号</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>国家级国际科技合作与交流专项</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -146,13 +139,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="仿宋_GB2312"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -171,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -203,12 +210,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -216,18 +238,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,6 +249,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -584,65 +609,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="s">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -652,59 +677,60 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" ht="36">
-      <c r="A3" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3">
+    <row r="3" spans="1:23" ht="36">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7">
         <v>2010</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>2011</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <v>538</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="7">
         <v>269</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="M3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="30" customHeight="1">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1">
@@ -716,9 +742,7 @@
     <row r="7" spans="1:23" ht="30" customHeight="1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1">
-      <c r="A8" s="1"/>
-    </row>
+    <row r="8" spans="1:23" ht="30" customHeight="1"/>
     <row r="9" spans="1:23" ht="30" customHeight="1"/>
     <row r="10" spans="1:23" ht="30" customHeight="1"/>
     <row r="11" spans="1:23" ht="30" customHeight="1"/>
@@ -763,7 +787,6 @@
     <row r="50" ht="30" customHeight="1"/>
     <row r="51" ht="30" customHeight="1"/>
     <row r="52" ht="30" customHeight="1"/>
-    <row r="53" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
